--- a/biology/Histoire de la zoologie et de la botanique/Francis_George_Allman_Barnard/Francis_George_Allman_Barnard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Francis_George_Allman_Barnard/Francis_George_Allman_Barnard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francis George Allman Barnard, né en 1857 à Kew dans l'État de Victoria et mort en 1932 à Melbourne, est un naturaliste australien.
 Il fait ses études à l’université de Melbourne et devient pharmacien en 1879. Il dirige la Metropolitan Chemists' Association en 1915 et la Eastern Suburbs Chemists vers 1920. À partir de 1920, il est le maire de Kew.
@@ -513,7 +525,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>« Notes on sponge from Northern Territory », in Q. J. Microsc. Soc. Vict., 1, 1879, 14-15 pl. 1 fig. 5-8.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anthony Musgrave, Bibliography of Australian Entomology, 1775-1930, with biographical notes on authors and collectors, Royal Zoological Society of News South Wales (Sydney), 1932, VIII-380 p.</t>
         </is>
